--- a/wizualizacja.xlsx
+++ b/wizualizacja.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pracka\Desktop\PJATK\2\GUI - programowanie obiektowe i GUI\cwiczenia\projekt1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pracka\Desktop\PJATK\2\GUI - programowanie obiektowe i GUI\cwiczenia\projekt1\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="wizual" sheetId="1" r:id="rId1"/>
     <sheet name="przeciecia" sheetId="2" r:id="rId2"/>
+    <sheet name="Arkusz1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>dodaj stacje kolejową</t>
   </si>
@@ -84,6 +84,27 @@
 ilość wagonów: 4
 stacja docelowa: dupa
 </t>
+  </si>
+  <si>
+    <t>delta t (sek)</t>
+  </si>
+  <si>
+    <t>predkosc (km/h)</t>
+  </si>
+  <si>
+    <t>przebyta droga %</t>
+  </si>
+  <si>
+    <t>predkosc m/s</t>
+  </si>
+  <si>
+    <t>pozostała droga (m)</t>
+  </si>
+  <si>
+    <t>przebyta droga (m)</t>
+  </si>
+  <si>
+    <t>dlugosc trasy (km)</t>
   </si>
 </sst>
 </file>
@@ -286,7 +307,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
@@ -300,6 +321,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -310,6 +340,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -327,36 +378,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% — akcent 2" xfId="2" builtinId="34"/>
@@ -376,6 +401,976 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>predkosc (km/h)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.971800000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99.91</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.912700000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>107.12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>110.3336</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>113.643608</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>98.94</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>101.90819999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F29-40B9-9755-491DB269AFFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1773142655"/>
+        <c:axId val="1773153471"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1773142655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1773153471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1773153471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1773142655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -752,6 +1747,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
@@ -1039,11 +2069,11 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="7"/>
@@ -1065,11 +2095,11 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="15"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="7"/>
@@ -1091,11 +2121,11 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="15"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="7"/>
@@ -1117,11 +2147,11 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18"/>
     </row>
     <row r="9" spans="4:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="7"/>
@@ -1143,11 +2173,11 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="21"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31"/>
     </row>
     <row r="11" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="7"/>
@@ -1169,11 +2199,11 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="18"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="28"/>
     </row>
     <row r="13" spans="4:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D13" s="7"/>
@@ -1195,11 +2225,11 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="15"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="18"/>
     </row>
     <row r="15" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="7"/>
@@ -1221,11 +2251,11 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="15"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D17" s="7"/>
@@ -1247,11 +2277,11 @@
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="18"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="28"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D19" s="7"/>
@@ -1273,11 +2303,11 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="31" t="s">
+      <c r="K20" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="26"/>
-      <c r="M20" s="27"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="22"/>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D21" s="7"/>
@@ -1287,9 +2317,9 @@
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="27"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="22"/>
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D22" s="7"/>
@@ -1299,9 +2329,9 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="27"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="22"/>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D23" s="7"/>
@@ -1311,9 +2341,9 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="27"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="22"/>
     </row>
     <row r="24" spans="4:13" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D24" s="10"/>
@@ -1323,9 +2353,9 @@
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="12"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="30"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1349,7 +2379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
@@ -1425,4 +2455,744 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="33">
+        <v>0</v>
+      </c>
+      <c r="B2" s="34">
+        <v>100</v>
+      </c>
+      <c r="C2" s="34">
+        <f>B2/3.6</f>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="35">
+        <f>D2/$H$2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="33">
+        <f>$H$2*1000</f>
+        <v>500</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="33">
+        <v>1</v>
+      </c>
+      <c r="B3" s="34">
+        <f ca="1">B2*IF(RAND()&gt;0.5,1.03,0.97)</f>
+        <v>97</v>
+      </c>
+      <c r="C3" s="34">
+        <f t="shared" ref="C3:C29" ca="1" si="0">B3/3.6</f>
+        <v>26.944444444444443</v>
+      </c>
+      <c r="D3" s="34">
+        <f>B2/3.6*A3</f>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="E3" s="35">
+        <f>D3/$F$2</f>
+        <v>5.5555555555555559E-2</v>
+      </c>
+      <c r="F3" s="34">
+        <f>$F$2-D3</f>
+        <v>472.22222222222223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="33">
+        <v>2</v>
+      </c>
+      <c r="B4" s="34">
+        <f ca="1">B3*IF(RAND()&gt;0.5,1.03,0.97)</f>
+        <v>99.91</v>
+      </c>
+      <c r="C4" s="34">
+        <f t="shared" ca="1" si="0"/>
+        <v>27.752777777777776</v>
+      </c>
+      <c r="D4" s="34">
+        <f ca="1">B3/3.6*A4</f>
+        <v>53.888888888888886</v>
+      </c>
+      <c r="E4" s="35">
+        <f ca="1">D4/$F$2</f>
+        <v>0.10777777777777778</v>
+      </c>
+      <c r="F4" s="34">
+        <f t="shared" ref="F4:F29" ca="1" si="1">$F$2-D4</f>
+        <v>446.11111111111109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="33">
+        <v>3</v>
+      </c>
+      <c r="B5" s="34">
+        <v>101</v>
+      </c>
+      <c r="C5" s="34">
+        <f t="shared" si="0"/>
+        <v>28.055555555555554</v>
+      </c>
+      <c r="D5" s="34">
+        <f ca="1">B4/3.6*A5</f>
+        <v>83.258333333333326</v>
+      </c>
+      <c r="E5" s="35">
+        <f ca="1">D5/$F$2</f>
+        <v>0.16651666666666665</v>
+      </c>
+      <c r="F5" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>416.74166666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="33">
+        <v>4</v>
+      </c>
+      <c r="B6" s="34">
+        <f t="shared" ref="B6:B7" ca="1" si="2">B5*IF(RAND()&gt;0.5,1.03,0.97)</f>
+        <v>97.97</v>
+      </c>
+      <c r="C6" s="34">
+        <f t="shared" ca="1" si="0"/>
+        <v>27.213888888888889</v>
+      </c>
+      <c r="D6" s="34">
+        <f>B5/3.6*A6</f>
+        <v>112.22222222222221</v>
+      </c>
+      <c r="E6" s="35">
+        <f>D6/$F$2</f>
+        <v>0.22444444444444442</v>
+      </c>
+      <c r="F6" s="34">
+        <f t="shared" si="1"/>
+        <v>387.77777777777777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="33">
+        <v>5</v>
+      </c>
+      <c r="B7" s="34">
+        <f t="shared" ca="1" si="2"/>
+        <v>95.030900000000003</v>
+      </c>
+      <c r="C7" s="34">
+        <f t="shared" ca="1" si="0"/>
+        <v>26.397472222222223</v>
+      </c>
+      <c r="D7" s="34">
+        <f ca="1">B6/3.6*A7</f>
+        <v>136.06944444444446</v>
+      </c>
+      <c r="E7" s="35">
+        <f ca="1">D7/$F$2</f>
+        <v>0.27213888888888893</v>
+      </c>
+      <c r="F7" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>363.93055555555554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="33">
+        <v>6</v>
+      </c>
+      <c r="B8" s="34">
+        <v>102</v>
+      </c>
+      <c r="C8" s="34">
+        <f t="shared" si="0"/>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="D8" s="34">
+        <f ca="1">B7/3.6*A8</f>
+        <v>158.38483333333335</v>
+      </c>
+      <c r="E8" s="35">
+        <f ca="1">D8/$F$2</f>
+        <v>0.31676966666666667</v>
+      </c>
+      <c r="F8" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>341.61516666666665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="33">
+        <v>7</v>
+      </c>
+      <c r="B9" s="34">
+        <f t="shared" ref="B9:B10" ca="1" si="3">B8*IF(RAND()&gt;0.5,1.03,0.97)</f>
+        <v>98.94</v>
+      </c>
+      <c r="C9" s="34">
+        <f t="shared" ca="1" si="0"/>
+        <v>27.483333333333331</v>
+      </c>
+      <c r="D9" s="34">
+        <f>B8/3.6*A9</f>
+        <v>198.33333333333331</v>
+      </c>
+      <c r="E9" s="35">
+        <f>D9/$F$2</f>
+        <v>0.39666666666666661</v>
+      </c>
+      <c r="F9" s="34">
+        <f t="shared" si="1"/>
+        <v>301.66666666666669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="33">
+        <v>8</v>
+      </c>
+      <c r="B10" s="34">
+        <f t="shared" ca="1" si="3"/>
+        <v>95.971800000000002</v>
+      </c>
+      <c r="C10" s="34">
+        <f t="shared" ca="1" si="0"/>
+        <v>26.658833333333334</v>
+      </c>
+      <c r="D10" s="34">
+        <f ca="1">B9/3.6*A10</f>
+        <v>219.86666666666665</v>
+      </c>
+      <c r="E10" s="35">
+        <f ca="1">D10/$F$2</f>
+        <v>0.43973333333333331</v>
+      </c>
+      <c r="F10" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>280.13333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="33">
+        <v>9</v>
+      </c>
+      <c r="B11" s="34">
+        <v>103</v>
+      </c>
+      <c r="C11" s="34">
+        <f t="shared" si="0"/>
+        <v>28.611111111111111</v>
+      </c>
+      <c r="D11" s="34">
+        <f ca="1">B10/3.6*A11</f>
+        <v>239.92950000000002</v>
+      </c>
+      <c r="E11" s="35">
+        <f ca="1">D11/$F$2</f>
+        <v>0.47985900000000004</v>
+      </c>
+      <c r="F11" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>260.07049999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="33">
+        <v>10</v>
+      </c>
+      <c r="B12" s="34">
+        <f t="shared" ref="B12:B13" ca="1" si="4">B11*IF(RAND()&gt;0.5,1.03,0.97)</f>
+        <v>99.91</v>
+      </c>
+      <c r="C12" s="34">
+        <f t="shared" ca="1" si="0"/>
+        <v>27.752777777777776</v>
+      </c>
+      <c r="D12" s="34">
+        <f>B11/3.6*A12</f>
+        <v>286.11111111111109</v>
+      </c>
+      <c r="E12" s="35">
+        <f>D12/$F$2</f>
+        <v>0.57222222222222219</v>
+      </c>
+      <c r="F12" s="34">
+        <f t="shared" si="1"/>
+        <v>213.88888888888891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="33">
+        <v>11</v>
+      </c>
+      <c r="B13" s="34">
+        <f t="shared" ca="1" si="4"/>
+        <v>96.912700000000001</v>
+      </c>
+      <c r="C13" s="34">
+        <f t="shared" ca="1" si="0"/>
+        <v>26.920194444444444</v>
+      </c>
+      <c r="D13" s="34">
+        <f ca="1">B12/3.6*A13</f>
+        <v>305.28055555555557</v>
+      </c>
+      <c r="E13" s="35">
+        <f ca="1">D13/$F$2</f>
+        <v>0.61056111111111111</v>
+      </c>
+      <c r="F13" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>194.71944444444443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="33">
+        <v>12</v>
+      </c>
+      <c r="B14" s="34">
+        <v>104</v>
+      </c>
+      <c r="C14" s="34">
+        <f t="shared" si="0"/>
+        <v>28.888888888888889</v>
+      </c>
+      <c r="D14" s="34">
+        <f ca="1">B13/3.6*A14</f>
+        <v>323.04233333333332</v>
+      </c>
+      <c r="E14" s="35">
+        <f ca="1">D14/$F$2</f>
+        <v>0.64608466666666664</v>
+      </c>
+      <c r="F14" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>176.95766666666668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="33">
+        <v>13</v>
+      </c>
+      <c r="B15" s="34">
+        <f t="shared" ref="B15:B17" ca="1" si="5">B14*IF(RAND()&gt;0.5,1.03,0.97)</f>
+        <v>107.12</v>
+      </c>
+      <c r="C15" s="34">
+        <f t="shared" ca="1" si="0"/>
+        <v>29.755555555555556</v>
+      </c>
+      <c r="D15" s="34">
+        <f>B14/3.6*A15</f>
+        <v>375.55555555555554</v>
+      </c>
+      <c r="E15" s="35">
+        <f>D15/$F$2</f>
+        <v>0.75111111111111106</v>
+      </c>
+      <c r="F15" s="34">
+        <f t="shared" si="1"/>
+        <v>124.44444444444446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="33">
+        <v>14</v>
+      </c>
+      <c r="B16" s="34">
+        <f t="shared" ca="1" si="5"/>
+        <v>110.3336</v>
+      </c>
+      <c r="C16" s="34">
+        <f t="shared" ca="1" si="0"/>
+        <v>30.648222222222223</v>
+      </c>
+      <c r="D16" s="34">
+        <f ca="1">B15/3.6*A16</f>
+        <v>416.57777777777778</v>
+      </c>
+      <c r="E16" s="35">
+        <f ca="1">D16/$F$2</f>
+        <v>0.83315555555555554</v>
+      </c>
+      <c r="F16" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>83.422222222222217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="33">
+        <v>15</v>
+      </c>
+      <c r="B17" s="34">
+        <f t="shared" ca="1" si="5"/>
+        <v>113.643608</v>
+      </c>
+      <c r="C17" s="34">
+        <f t="shared" ca="1" si="0"/>
+        <v>31.567668888888889</v>
+      </c>
+      <c r="D17" s="34">
+        <f ca="1">B16/3.6*A17</f>
+        <v>459.72333333333336</v>
+      </c>
+      <c r="E17" s="35">
+        <f ca="1">D17/$F$2</f>
+        <v>0.91944666666666675</v>
+      </c>
+      <c r="F17" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>40.276666666666642</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="33">
+        <v>16</v>
+      </c>
+      <c r="B18" s="34">
+        <v>102</v>
+      </c>
+      <c r="C18" s="34">
+        <f t="shared" si="0"/>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="D18" s="34">
+        <f ca="1">B17/3.6*A18</f>
+        <v>505.08270222222222</v>
+      </c>
+      <c r="E18" s="35">
+        <f ca="1">D18/$F$2</f>
+        <v>1.0101654044444444</v>
+      </c>
+      <c r="F18" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>-5.082702222222224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="33">
+        <v>17</v>
+      </c>
+      <c r="B19" s="34">
+        <f t="shared" ref="B19:B20" ca="1" si="6">B18*IF(RAND()&gt;0.5,1.03,0.97)</f>
+        <v>98.94</v>
+      </c>
+      <c r="C19" s="34">
+        <f t="shared" ca="1" si="0"/>
+        <v>27.483333333333331</v>
+      </c>
+      <c r="D19" s="34">
+        <f>B18/3.6*A19</f>
+        <v>481.66666666666663</v>
+      </c>
+      <c r="E19" s="35">
+        <f>D19/$F$2</f>
+        <v>0.96333333333333326</v>
+      </c>
+      <c r="F19" s="34">
+        <f t="shared" si="1"/>
+        <v>18.333333333333371</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="33">
+        <v>18</v>
+      </c>
+      <c r="B20" s="34">
+        <f t="shared" ca="1" si="6"/>
+        <v>101.90819999999999</v>
+      </c>
+      <c r="C20" s="34">
+        <f t="shared" ca="1" si="0"/>
+        <v>28.307833333333331</v>
+      </c>
+      <c r="D20" s="34">
+        <f ca="1">B19/3.6*A20</f>
+        <v>494.69999999999993</v>
+      </c>
+      <c r="E20" s="35">
+        <f ca="1">D20/$F$2</f>
+        <v>0.98939999999999984</v>
+      </c>
+      <c r="F20" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.3000000000000682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="33">
+        <v>19</v>
+      </c>
+      <c r="B21" s="34">
+        <v>103</v>
+      </c>
+      <c r="C21" s="34">
+        <f t="shared" si="0"/>
+        <v>28.611111111111111</v>
+      </c>
+      <c r="D21" s="34">
+        <f ca="1">B20/3.6*A21</f>
+        <v>537.84883333333335</v>
+      </c>
+      <c r="E21" s="35">
+        <f ca="1">D21/$F$2</f>
+        <v>1.0756976666666667</v>
+      </c>
+      <c r="F21" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>-37.848833333333346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="32">
+        <f t="shared" ref="B22:B23" ca="1" si="7">B21*IF(RAND()&gt;0.5,1.03,0.97)</f>
+        <v>106.09</v>
+      </c>
+      <c r="C22" s="32">
+        <f t="shared" ca="1" si="0"/>
+        <v>29.469444444444445</v>
+      </c>
+      <c r="D22" s="32">
+        <f>B21/3.6*A22</f>
+        <v>572.22222222222217</v>
+      </c>
+      <c r="E22" s="35">
+        <f>D22/$F$2</f>
+        <v>1.1444444444444444</v>
+      </c>
+      <c r="F22" s="34">
+        <f t="shared" si="1"/>
+        <v>-72.222222222222172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="32">
+        <f t="shared" ca="1" si="7"/>
+        <v>109.2727</v>
+      </c>
+      <c r="C23" s="32">
+        <f t="shared" ca="1" si="0"/>
+        <v>30.353527777777778</v>
+      </c>
+      <c r="D23" s="32">
+        <f ca="1">B22/3.6*A23</f>
+        <v>618.85833333333335</v>
+      </c>
+      <c r="E23" s="35">
+        <f ca="1">D23/$F$2</f>
+        <v>1.2377166666666668</v>
+      </c>
+      <c r="F23" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>-118.85833333333335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="32">
+        <v>104</v>
+      </c>
+      <c r="C24" s="32">
+        <f t="shared" si="0"/>
+        <v>28.888888888888889</v>
+      </c>
+      <c r="D24" s="32">
+        <f ca="1">B23/3.6*A24</f>
+        <v>667.77761111111113</v>
+      </c>
+      <c r="E24" s="35">
+        <f ca="1">D24/$F$2</f>
+        <v>1.3355552222222222</v>
+      </c>
+      <c r="F24" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>-167.77761111111113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="32">
+        <f t="shared" ref="B25:B27" ca="1" si="8">B24*IF(RAND()&gt;0.5,1.03,0.97)</f>
+        <v>107.12</v>
+      </c>
+      <c r="C25" s="32">
+        <f t="shared" ca="1" si="0"/>
+        <v>29.755555555555556</v>
+      </c>
+      <c r="D25" s="32">
+        <f>B24/3.6*A25</f>
+        <v>664.44444444444446</v>
+      </c>
+      <c r="E25" s="35">
+        <f>D25/$F$2</f>
+        <v>1.328888888888889</v>
+      </c>
+      <c r="F25" s="34">
+        <f t="shared" si="1"/>
+        <v>-164.44444444444446</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="32">
+        <f t="shared" ca="1" si="8"/>
+        <v>110.3336</v>
+      </c>
+      <c r="C26" s="32">
+        <f t="shared" ca="1" si="0"/>
+        <v>30.648222222222223</v>
+      </c>
+      <c r="D26" s="32">
+        <f ca="1">B25/3.6*A26</f>
+        <v>714.13333333333333</v>
+      </c>
+      <c r="E26" s="35">
+        <f ca="1">D26/$F$2</f>
+        <v>1.4282666666666666</v>
+      </c>
+      <c r="F26" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>-214.13333333333333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="32">
+        <f t="shared" ca="1" si="8"/>
+        <v>113.643608</v>
+      </c>
+      <c r="C27" s="32">
+        <f t="shared" ca="1" si="0"/>
+        <v>31.567668888888889</v>
+      </c>
+      <c r="D27" s="32">
+        <f ca="1">B26/3.6*A27</f>
+        <v>766.20555555555563</v>
+      </c>
+      <c r="E27" s="35">
+        <f ca="1">D27/$F$2</f>
+        <v>1.5324111111111112</v>
+      </c>
+      <c r="F27" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>-266.20555555555563</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="32">
+        <v>102</v>
+      </c>
+      <c r="C28" s="32">
+        <f t="shared" si="0"/>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="D28" s="32">
+        <f ca="1">B27/3.6*A28</f>
+        <v>820.75939111111109</v>
+      </c>
+      <c r="E28" s="35">
+        <f ca="1">D28/$F$2</f>
+        <v>1.6415187822222221</v>
+      </c>
+      <c r="F28" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>-320.75939111111109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="32">
+        <f t="shared" ref="B29" ca="1" si="9">B28*IF(RAND()&gt;0.5,1.03,0.97)</f>
+        <v>105.06</v>
+      </c>
+      <c r="C29" s="32">
+        <f t="shared" ca="1" si="0"/>
+        <v>29.183333333333334</v>
+      </c>
+      <c r="D29" s="32">
+        <f>B28/3.6*A29</f>
+        <v>765</v>
+      </c>
+      <c r="E29" s="35">
+        <f>D29/$F$2</f>
+        <v>1.53</v>
+      </c>
+      <c r="F29" s="34">
+        <f t="shared" si="1"/>
+        <v>-265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/wizualizacja.xlsx
+++ b/wizualizacja.xlsx
@@ -17,6 +17,7 @@
     <sheet name="Arkusz1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -321,6 +322,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="4" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -378,10 +383,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% — akcent 2" xfId="2" builtinId="34"/>
@@ -571,10 +572,10 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99.91</c:v>
+                  <c:v>106.09</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>101</c:v>
@@ -583,16 +584,16 @@
                   <c:v>97.97</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95.030900000000003</c:v>
+                  <c:v>100.9091</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98.94</c:v>
+                  <c:v>105.06</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95.971800000000002</c:v>
+                  <c:v>101.90819999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>103</c:v>
@@ -2069,11 +2070,11 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="15"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="7"/>
@@ -2095,11 +2096,11 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="18"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22"/>
     </row>
     <row r="5" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="7"/>
@@ -2121,11 +2122,11 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="18"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="22"/>
     </row>
     <row r="7" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="7"/>
@@ -2147,11 +2148,11 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="18"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="22"/>
     </row>
     <row r="9" spans="4:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="7"/>
@@ -2173,11 +2174,11 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="30"/>
-      <c r="M10" s="31"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="35"/>
     </row>
     <row r="11" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="7"/>
@@ -2199,11 +2200,11 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="27"/>
-      <c r="M12" s="28"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="32"/>
     </row>
     <row r="13" spans="4:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D13" s="7"/>
@@ -2225,11 +2226,11 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="18"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="22"/>
     </row>
     <row r="15" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="7"/>
@@ -2251,11 +2252,11 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="18"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="22"/>
     </row>
     <row r="17" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D17" s="7"/>
@@ -2277,11 +2278,11 @@
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="27"/>
-      <c r="M18" s="28"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="32"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D19" s="7"/>
@@ -2303,11 +2304,11 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="21"/>
-      <c r="M20" s="22"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="26"/>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D21" s="7"/>
@@ -2317,9 +2318,9 @@
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="22"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="26"/>
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D22" s="7"/>
@@ -2329,9 +2330,9 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="22"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="26"/>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D23" s="7"/>
@@ -2341,9 +2342,9 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="22"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="26"/>
     </row>
     <row r="24" spans="4:13" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D24" s="10"/>
@@ -2353,9 +2354,9 @@
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="12"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="26"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2498,24 +2499,24 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="33">
+      <c r="A2" s="14">
         <v>0</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="15">
         <v>100</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="15">
         <f>B2/3.6</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="15">
         <v>0</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2" s="16">
         <f>D2/$H$2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="14">
         <f>$H$2*1000</f>
         <v>500</v>
       </c>
@@ -2524,471 +2525,471 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="33">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="15">
         <f ca="1">B2*IF(RAND()&gt;0.5,1.03,0.97)</f>
-        <v>97</v>
-      </c>
-      <c r="C3" s="34">
+        <v>103</v>
+      </c>
+      <c r="C3" s="15">
         <f t="shared" ref="C3:C29" ca="1" si="0">B3/3.6</f>
-        <v>26.944444444444443</v>
-      </c>
-      <c r="D3" s="34">
-        <f>B2/3.6*A3</f>
+        <v>28.611111111111111</v>
+      </c>
+      <c r="D3" s="15">
+        <f t="shared" ref="D3:D29" si="1">B2/3.6*A3</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="E3" s="35">
-        <f>D3/$F$2</f>
+      <c r="E3" s="16">
+        <f t="shared" ref="E3:E29" si="2">D3/$F$2</f>
         <v>5.5555555555555559E-2</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="15">
         <f>$F$2-D3</f>
         <v>472.22222222222223</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="33">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="15">
         <f ca="1">B3*IF(RAND()&gt;0.5,1.03,0.97)</f>
+        <v>106.09</v>
+      </c>
+      <c r="C4" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>29.469444444444445</v>
+      </c>
+      <c r="D4" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>57.222222222222221</v>
+      </c>
+      <c r="E4" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.11444444444444445</v>
+      </c>
+      <c r="F4" s="15">
+        <f t="shared" ref="F4:F29" ca="1" si="3">$F$2-D4</f>
+        <v>442.77777777777777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15">
+        <v>101</v>
+      </c>
+      <c r="C5" s="15">
+        <f t="shared" si="0"/>
+        <v>28.055555555555554</v>
+      </c>
+      <c r="D5" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>88.408333333333331</v>
+      </c>
+      <c r="E5" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.17681666666666665</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>411.5916666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15">
+        <f t="shared" ref="B6:B7" ca="1" si="4">B5*IF(RAND()&gt;0.5,1.03,0.97)</f>
+        <v>97.97</v>
+      </c>
+      <c r="C6" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>27.213888888888889</v>
+      </c>
+      <c r="D6" s="15">
+        <f t="shared" si="1"/>
+        <v>112.22222222222221</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" si="2"/>
+        <v>0.22444444444444442</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="3"/>
+        <v>387.77777777777777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>100.9091</v>
+      </c>
+      <c r="C7" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>28.030305555555554</v>
+      </c>
+      <c r="D7" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>136.06944444444446</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.27213888888888893</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>363.93055555555554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15">
+        <v>102</v>
+      </c>
+      <c r="C8" s="15">
+        <f t="shared" si="0"/>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="D8" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>168.18183333333332</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.33636366666666662</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>331.81816666666668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15">
+        <f t="shared" ref="B9:B10" ca="1" si="5">B8*IF(RAND()&gt;0.5,1.03,0.97)</f>
+        <v>105.06</v>
+      </c>
+      <c r="C9" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>29.183333333333334</v>
+      </c>
+      <c r="D9" s="15">
+        <f t="shared" si="1"/>
+        <v>198.33333333333331</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" si="2"/>
+        <v>0.39666666666666661</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="3"/>
+        <v>301.66666666666669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>101.90819999999999</v>
+      </c>
+      <c r="C10" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>28.307833333333331</v>
+      </c>
+      <c r="D10" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>233.46666666666667</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.46693333333333331</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>266.5333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>9</v>
+      </c>
+      <c r="B11" s="15">
+        <v>103</v>
+      </c>
+      <c r="C11" s="15">
+        <f t="shared" si="0"/>
+        <v>28.611111111111111</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>254.77049999999997</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.50954099999999991</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>245.22950000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>10</v>
+      </c>
+      <c r="B12" s="15">
+        <f t="shared" ref="B12:B13" ca="1" si="6">B11*IF(RAND()&gt;0.5,1.03,0.97)</f>
         <v>99.91</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C12" s="15">
         <f t="shared" ca="1" si="0"/>
         <v>27.752777777777776</v>
       </c>
-      <c r="D4" s="34">
-        <f ca="1">B3/3.6*A4</f>
-        <v>53.888888888888886</v>
-      </c>
-      <c r="E4" s="35">
-        <f ca="1">D4/$F$2</f>
-        <v>0.10777777777777778</v>
-      </c>
-      <c r="F4" s="34">
-        <f t="shared" ref="F4:F29" ca="1" si="1">$F$2-D4</f>
-        <v>446.11111111111109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="33">
-        <v>3</v>
-      </c>
-      <c r="B5" s="34">
-        <v>101</v>
-      </c>
-      <c r="C5" s="34">
+      <c r="D12" s="15">
+        <f t="shared" si="1"/>
+        <v>286.11111111111109</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" si="2"/>
+        <v>0.57222222222222219</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="3"/>
+        <v>213.88888888888891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>11</v>
+      </c>
+      <c r="B13" s="15">
+        <f t="shared" ca="1" si="6"/>
+        <v>96.912700000000001</v>
+      </c>
+      <c r="C13" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>26.920194444444444</v>
+      </c>
+      <c r="D13" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>305.28055555555557</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.61056111111111111</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>194.71944444444443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="15">
+        <v>104</v>
+      </c>
+      <c r="C14" s="15">
         <f t="shared" si="0"/>
-        <v>28.055555555555554</v>
-      </c>
-      <c r="D5" s="34">
-        <f ca="1">B4/3.6*A5</f>
-        <v>83.258333333333326</v>
-      </c>
-      <c r="E5" s="35">
-        <f ca="1">D5/$F$2</f>
-        <v>0.16651666666666665</v>
-      </c>
-      <c r="F5" s="34">
+        <v>28.888888888888889</v>
+      </c>
+      <c r="D14" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>416.74166666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="33">
-        <v>4</v>
-      </c>
-      <c r="B6" s="34">
-        <f t="shared" ref="B6:B7" ca="1" si="2">B5*IF(RAND()&gt;0.5,1.03,0.97)</f>
-        <v>97.97</v>
-      </c>
-      <c r="C6" s="34">
+        <v>323.04233333333332</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.64608466666666664</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>176.95766666666668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
+        <v>13</v>
+      </c>
+      <c r="B15" s="15">
+        <f t="shared" ref="B15:B17" ca="1" si="7">B14*IF(RAND()&gt;0.5,1.03,0.97)</f>
+        <v>107.12</v>
+      </c>
+      <c r="C15" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>27.213888888888889</v>
-      </c>
-      <c r="D6" s="34">
-        <f>B5/3.6*A6</f>
-        <v>112.22222222222221</v>
-      </c>
-      <c r="E6" s="35">
-        <f>D6/$F$2</f>
-        <v>0.22444444444444442</v>
-      </c>
-      <c r="F6" s="34">
+        <v>29.755555555555556</v>
+      </c>
+      <c r="D15" s="15">
         <f t="shared" si="1"/>
-        <v>387.77777777777777</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="33">
-        <v>5</v>
-      </c>
-      <c r="B7" s="34">
+        <v>375.55555555555554</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="2"/>
+        <v>0.75111111111111106</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="3"/>
+        <v>124.44444444444446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>14</v>
+      </c>
+      <c r="B16" s="15">
+        <f t="shared" ca="1" si="7"/>
+        <v>110.3336</v>
+      </c>
+      <c r="C16" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>30.648222222222223</v>
+      </c>
+      <c r="D16" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>416.57777777777778</v>
+      </c>
+      <c r="E16" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>95.030900000000003</v>
-      </c>
-      <c r="C7" s="34">
+        <v>0.83315555555555554</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>83.422222222222217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <v>15</v>
+      </c>
+      <c r="B17" s="15">
+        <f t="shared" ca="1" si="7"/>
+        <v>113.643608</v>
+      </c>
+      <c r="C17" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>26.397472222222223</v>
-      </c>
-      <c r="D7" s="34">
-        <f ca="1">B6/3.6*A7</f>
-        <v>136.06944444444446</v>
-      </c>
-      <c r="E7" s="35">
-        <f ca="1">D7/$F$2</f>
-        <v>0.27213888888888893</v>
-      </c>
-      <c r="F7" s="34">
+        <v>31.567668888888889</v>
+      </c>
+      <c r="D17" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>363.93055555555554</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="33">
-        <v>6</v>
-      </c>
-      <c r="B8" s="34">
+        <v>459.72333333333336</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.91944666666666675</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>40.276666666666642</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>16</v>
+      </c>
+      <c r="B18" s="15">
         <v>102</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C18" s="15">
         <f t="shared" si="0"/>
         <v>28.333333333333332</v>
       </c>
-      <c r="D8" s="34">
-        <f ca="1">B7/3.6*A8</f>
-        <v>158.38483333333335</v>
-      </c>
-      <c r="E8" s="35">
-        <f ca="1">D8/$F$2</f>
-        <v>0.31676966666666667</v>
-      </c>
-      <c r="F8" s="34">
+      <c r="D18" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>341.61516666666665</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="33">
-        <v>7</v>
-      </c>
-      <c r="B9" s="34">
-        <f t="shared" ref="B9:B10" ca="1" si="3">B8*IF(RAND()&gt;0.5,1.03,0.97)</f>
+        <v>505.08270222222222</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0101654044444444</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5.082702222222224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <v>17</v>
+      </c>
+      <c r="B19" s="15">
+        <f t="shared" ref="B19:B20" ca="1" si="8">B18*IF(RAND()&gt;0.5,1.03,0.97)</f>
         <v>98.94</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C19" s="15">
         <f t="shared" ca="1" si="0"/>
         <v>27.483333333333331</v>
       </c>
-      <c r="D9" s="34">
-        <f>B8/3.6*A9</f>
-        <v>198.33333333333331</v>
-      </c>
-      <c r="E9" s="35">
-        <f>D9/$F$2</f>
-        <v>0.39666666666666661</v>
-      </c>
-      <c r="F9" s="34">
+      <c r="D19" s="15">
         <f t="shared" si="1"/>
-        <v>301.66666666666669</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
-        <v>8</v>
-      </c>
-      <c r="B10" s="34">
+        <v>481.66666666666663</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="2"/>
+        <v>0.96333333333333326</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="3"/>
+        <v>18.333333333333371</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>18</v>
+      </c>
+      <c r="B20" s="15">
+        <f t="shared" ca="1" si="8"/>
+        <v>101.90819999999999</v>
+      </c>
+      <c r="C20" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>28.307833333333331</v>
+      </c>
+      <c r="D20" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>494.69999999999993</v>
+      </c>
+      <c r="E20" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.98939999999999984</v>
+      </c>
+      <c r="F20" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>95.971800000000002</v>
-      </c>
-      <c r="C10" s="34">
-        <f t="shared" ca="1" si="0"/>
-        <v>26.658833333333334</v>
-      </c>
-      <c r="D10" s="34">
-        <f ca="1">B9/3.6*A10</f>
-        <v>219.86666666666665</v>
-      </c>
-      <c r="E10" s="35">
-        <f ca="1">D10/$F$2</f>
-        <v>0.43973333333333331</v>
-      </c>
-      <c r="F10" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>280.13333333333333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="33">
-        <v>9</v>
-      </c>
-      <c r="B11" s="34">
+        <v>5.3000000000000682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <v>19</v>
+      </c>
+      <c r="B21" s="15">
         <v>103</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C21" s="15">
         <f t="shared" si="0"/>
         <v>28.611111111111111</v>
       </c>
-      <c r="D11" s="34">
-        <f ca="1">B10/3.6*A11</f>
-        <v>239.92950000000002</v>
-      </c>
-      <c r="E11" s="35">
-        <f ca="1">D11/$F$2</f>
-        <v>0.47985900000000004</v>
-      </c>
-      <c r="F11" s="34">
+      <c r="D21" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>260.07049999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="33">
-        <v>10</v>
-      </c>
-      <c r="B12" s="34">
-        <f t="shared" ref="B12:B13" ca="1" si="4">B11*IF(RAND()&gt;0.5,1.03,0.97)</f>
-        <v>99.91</v>
-      </c>
-      <c r="C12" s="34">
-        <f t="shared" ca="1" si="0"/>
-        <v>27.752777777777776</v>
-      </c>
-      <c r="D12" s="34">
-        <f>B11/3.6*A12</f>
-        <v>286.11111111111109</v>
-      </c>
-      <c r="E12" s="35">
-        <f>D12/$F$2</f>
-        <v>0.57222222222222219</v>
-      </c>
-      <c r="F12" s="34">
-        <f t="shared" si="1"/>
-        <v>213.88888888888891</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="33">
-        <v>11</v>
-      </c>
-      <c r="B13" s="34">
-        <f t="shared" ca="1" si="4"/>
-        <v>96.912700000000001</v>
-      </c>
-      <c r="C13" s="34">
-        <f t="shared" ca="1" si="0"/>
-        <v>26.920194444444444</v>
-      </c>
-      <c r="D13" s="34">
-        <f ca="1">B12/3.6*A13</f>
-        <v>305.28055555555557</v>
-      </c>
-      <c r="E13" s="35">
-        <f ca="1">D13/$F$2</f>
-        <v>0.61056111111111111</v>
-      </c>
-      <c r="F13" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>194.71944444444443</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="33">
-        <v>12</v>
-      </c>
-      <c r="B14" s="34">
-        <v>104</v>
-      </c>
-      <c r="C14" s="34">
-        <f t="shared" si="0"/>
-        <v>28.888888888888889</v>
-      </c>
-      <c r="D14" s="34">
-        <f ca="1">B13/3.6*A14</f>
-        <v>323.04233333333332</v>
-      </c>
-      <c r="E14" s="35">
-        <f ca="1">D14/$F$2</f>
-        <v>0.64608466666666664</v>
-      </c>
-      <c r="F14" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>176.95766666666668</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="33">
-        <v>13</v>
-      </c>
-      <c r="B15" s="34">
-        <f t="shared" ref="B15:B17" ca="1" si="5">B14*IF(RAND()&gt;0.5,1.03,0.97)</f>
-        <v>107.12</v>
-      </c>
-      <c r="C15" s="34">
-        <f t="shared" ca="1" si="0"/>
-        <v>29.755555555555556</v>
-      </c>
-      <c r="D15" s="34">
-        <f>B14/3.6*A15</f>
-        <v>375.55555555555554</v>
-      </c>
-      <c r="E15" s="35">
-        <f>D15/$F$2</f>
-        <v>0.75111111111111106</v>
-      </c>
-      <c r="F15" s="34">
-        <f t="shared" si="1"/>
-        <v>124.44444444444446</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="33">
-        <v>14</v>
-      </c>
-      <c r="B16" s="34">
-        <f t="shared" ca="1" si="5"/>
-        <v>110.3336</v>
-      </c>
-      <c r="C16" s="34">
-        <f t="shared" ca="1" si="0"/>
-        <v>30.648222222222223</v>
-      </c>
-      <c r="D16" s="34">
-        <f ca="1">B15/3.6*A16</f>
-        <v>416.57777777777778</v>
-      </c>
-      <c r="E16" s="35">
-        <f ca="1">D16/$F$2</f>
-        <v>0.83315555555555554</v>
-      </c>
-      <c r="F16" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>83.422222222222217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="33">
-        <v>15</v>
-      </c>
-      <c r="B17" s="34">
-        <f t="shared" ca="1" si="5"/>
-        <v>113.643608</v>
-      </c>
-      <c r="C17" s="34">
-        <f t="shared" ca="1" si="0"/>
-        <v>31.567668888888889</v>
-      </c>
-      <c r="D17" s="34">
-        <f ca="1">B16/3.6*A17</f>
-        <v>459.72333333333336</v>
-      </c>
-      <c r="E17" s="35">
-        <f ca="1">D17/$F$2</f>
-        <v>0.91944666666666675</v>
-      </c>
-      <c r="F17" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>40.276666666666642</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="33">
-        <v>16</v>
-      </c>
-      <c r="B18" s="34">
-        <v>102</v>
-      </c>
-      <c r="C18" s="34">
-        <f t="shared" si="0"/>
-        <v>28.333333333333332</v>
-      </c>
-      <c r="D18" s="34">
-        <f ca="1">B17/3.6*A18</f>
-        <v>505.08270222222222</v>
-      </c>
-      <c r="E18" s="35">
-        <f ca="1">D18/$F$2</f>
-        <v>1.0101654044444444</v>
-      </c>
-      <c r="F18" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5.082702222222224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="33">
-        <v>17</v>
-      </c>
-      <c r="B19" s="34">
-        <f t="shared" ref="B19:B20" ca="1" si="6">B18*IF(RAND()&gt;0.5,1.03,0.97)</f>
-        <v>98.94</v>
-      </c>
-      <c r="C19" s="34">
-        <f t="shared" ca="1" si="0"/>
-        <v>27.483333333333331</v>
-      </c>
-      <c r="D19" s="34">
-        <f>B18/3.6*A19</f>
-        <v>481.66666666666663</v>
-      </c>
-      <c r="E19" s="35">
-        <f>D19/$F$2</f>
-        <v>0.96333333333333326</v>
-      </c>
-      <c r="F19" s="34">
-        <f t="shared" si="1"/>
-        <v>18.333333333333371</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="33">
-        <v>18</v>
-      </c>
-      <c r="B20" s="34">
-        <f t="shared" ca="1" si="6"/>
-        <v>101.90819999999999</v>
-      </c>
-      <c r="C20" s="34">
-        <f t="shared" ca="1" si="0"/>
-        <v>28.307833333333331</v>
-      </c>
-      <c r="D20" s="34">
-        <f ca="1">B19/3.6*A20</f>
-        <v>494.69999999999993</v>
-      </c>
-      <c r="E20" s="35">
-        <f ca="1">D20/$F$2</f>
-        <v>0.98939999999999984</v>
-      </c>
-      <c r="F20" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.3000000000000682</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="33">
-        <v>19</v>
-      </c>
-      <c r="B21" s="34">
-        <v>103</v>
-      </c>
-      <c r="C21" s="34">
-        <f t="shared" si="0"/>
-        <v>28.611111111111111</v>
-      </c>
-      <c r="D21" s="34">
-        <f ca="1">B20/3.6*A21</f>
         <v>537.84883333333335</v>
       </c>
-      <c r="E21" s="35">
-        <f ca="1">D21/$F$2</f>
+      <c r="E21" s="16">
+        <f t="shared" ca="1" si="2"/>
         <v>1.0756976666666667</v>
       </c>
-      <c r="F21" s="34">
-        <f t="shared" ca="1" si="1"/>
+      <c r="F21" s="15">
+        <f t="shared" ca="1" si="3"/>
         <v>-37.848833333333346</v>
       </c>
     </row>
@@ -2996,24 +2997,24 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="32">
-        <f t="shared" ref="B22:B23" ca="1" si="7">B21*IF(RAND()&gt;0.5,1.03,0.97)</f>
-        <v>106.09</v>
-      </c>
-      <c r="C22" s="32">
+      <c r="B22" s="13">
+        <f t="shared" ref="B22:B23" ca="1" si="9">B21*IF(RAND()&gt;0.5,1.03,0.97)</f>
+        <v>99.91</v>
+      </c>
+      <c r="C22" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>29.469444444444445</v>
-      </c>
-      <c r="D22" s="32">
-        <f>B21/3.6*A22</f>
+        <v>27.752777777777776</v>
+      </c>
+      <c r="D22" s="13">
+        <f t="shared" si="1"/>
         <v>572.22222222222217</v>
       </c>
-      <c r="E22" s="35">
-        <f>D22/$F$2</f>
+      <c r="E22" s="16">
+        <f t="shared" si="2"/>
         <v>1.1444444444444444</v>
       </c>
-      <c r="F22" s="34">
-        <f t="shared" si="1"/>
+      <c r="F22" s="15">
+        <f t="shared" si="3"/>
         <v>-72.222222222222172</v>
       </c>
     </row>
@@ -3021,73 +3022,73 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="32">
-        <f t="shared" ca="1" si="7"/>
-        <v>109.2727</v>
-      </c>
-      <c r="C23" s="32">
+      <c r="B23" s="13">
+        <f t="shared" ca="1" si="9"/>
+        <v>96.912700000000001</v>
+      </c>
+      <c r="C23" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>30.353527777777778</v>
-      </c>
-      <c r="D23" s="32">
-        <f ca="1">B22/3.6*A23</f>
-        <v>618.85833333333335</v>
-      </c>
-      <c r="E23" s="35">
-        <f ca="1">D23/$F$2</f>
-        <v>1.2377166666666668</v>
-      </c>
-      <c r="F23" s="34">
+        <v>26.920194444444444</v>
+      </c>
+      <c r="D23" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>-118.85833333333335</v>
+        <v>582.80833333333328</v>
+      </c>
+      <c r="E23" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1656166666666665</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>-82.80833333333328</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="13">
         <v>104</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="13">
         <f t="shared" si="0"/>
         <v>28.888888888888889</v>
       </c>
-      <c r="D24" s="32">
-        <f ca="1">B23/3.6*A24</f>
-        <v>667.77761111111113</v>
-      </c>
-      <c r="E24" s="35">
-        <f ca="1">D24/$F$2</f>
-        <v>1.3355552222222222</v>
-      </c>
-      <c r="F24" s="34">
+      <c r="D24" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>-167.77761111111113</v>
+        <v>592.24427777777782</v>
+      </c>
+      <c r="E24" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1844885555555555</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>-92.244277777777825</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="32">
-        <f t="shared" ref="B25:B27" ca="1" si="8">B24*IF(RAND()&gt;0.5,1.03,0.97)</f>
+      <c r="B25" s="13">
+        <f t="shared" ref="B25:B27" ca="1" si="10">B24*IF(RAND()&gt;0.5,1.03,0.97)</f>
         <v>107.12</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="13">
         <f t="shared" ca="1" si="0"/>
         <v>29.755555555555556</v>
       </c>
-      <c r="D25" s="32">
-        <f>B24/3.6*A25</f>
+      <c r="D25" s="13">
+        <f t="shared" si="1"/>
         <v>664.44444444444446</v>
       </c>
-      <c r="E25" s="35">
-        <f>D25/$F$2</f>
+      <c r="E25" s="16">
+        <f t="shared" si="2"/>
         <v>1.328888888888889</v>
       </c>
-      <c r="F25" s="34">
-        <f t="shared" si="1"/>
+      <c r="F25" s="15">
+        <f t="shared" si="3"/>
         <v>-164.44444444444446</v>
       </c>
     </row>
@@ -3095,24 +3096,24 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="32">
-        <f t="shared" ca="1" si="8"/>
-        <v>110.3336</v>
-      </c>
-      <c r="C26" s="32">
+      <c r="B26" s="13">
+        <f t="shared" ca="1" si="10"/>
+        <v>103.9064</v>
+      </c>
+      <c r="C26" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>30.648222222222223</v>
-      </c>
-      <c r="D26" s="32">
-        <f ca="1">B25/3.6*A26</f>
+        <v>28.862888888888889</v>
+      </c>
+      <c r="D26" s="13">
+        <f t="shared" ca="1" si="1"/>
         <v>714.13333333333333</v>
       </c>
-      <c r="E26" s="35">
-        <f ca="1">D26/$F$2</f>
+      <c r="E26" s="16">
+        <f t="shared" ca="1" si="2"/>
         <v>1.4282666666666666</v>
       </c>
-      <c r="F26" s="34">
-        <f t="shared" ca="1" si="1"/>
+      <c r="F26" s="15">
+        <f t="shared" ca="1" si="3"/>
         <v>-214.13333333333333</v>
       </c>
     </row>
@@ -3120,73 +3121,73 @@
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="32">
-        <f t="shared" ca="1" si="8"/>
-        <v>113.643608</v>
-      </c>
-      <c r="C27" s="32">
+      <c r="B27" s="13">
+        <f t="shared" ca="1" si="10"/>
+        <v>107.02359200000001</v>
+      </c>
+      <c r="C27" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>31.567668888888889</v>
-      </c>
-      <c r="D27" s="32">
-        <f ca="1">B26/3.6*A27</f>
-        <v>766.20555555555563</v>
-      </c>
-      <c r="E27" s="35">
-        <f ca="1">D27/$F$2</f>
-        <v>1.5324111111111112</v>
-      </c>
-      <c r="F27" s="34">
+        <v>29.728775555555558</v>
+      </c>
+      <c r="D27" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>-266.20555555555563</v>
+        <v>721.57222222222219</v>
+      </c>
+      <c r="E27" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.4431444444444443</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>-221.57222222222219</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="32">
+      <c r="B28" s="13">
         <v>102</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="13">
         <f t="shared" si="0"/>
         <v>28.333333333333332</v>
       </c>
-      <c r="D28" s="32">
-        <f ca="1">B27/3.6*A28</f>
-        <v>820.75939111111109</v>
-      </c>
-      <c r="E28" s="35">
-        <f ca="1">D28/$F$2</f>
-        <v>1.6415187822222221</v>
-      </c>
-      <c r="F28" s="34">
+      <c r="D28" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>-320.75939111111109</v>
+        <v>772.9481644444445</v>
+      </c>
+      <c r="E28" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.5458963288888889</v>
+      </c>
+      <c r="F28" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>-272.9481644444445</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="32">
-        <f t="shared" ref="B29" ca="1" si="9">B28*IF(RAND()&gt;0.5,1.03,0.97)</f>
-        <v>105.06</v>
-      </c>
-      <c r="C29" s="32">
+      <c r="B29" s="13">
+        <f t="shared" ref="B29" ca="1" si="11">B28*IF(RAND()&gt;0.5,1.03,0.97)</f>
+        <v>98.94</v>
+      </c>
+      <c r="C29" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>29.183333333333334</v>
-      </c>
-      <c r="D29" s="32">
-        <f>B28/3.6*A29</f>
+        <v>27.483333333333331</v>
+      </c>
+      <c r="D29" s="13">
+        <f t="shared" si="1"/>
         <v>765</v>
       </c>
-      <c r="E29" s="35">
-        <f>D29/$F$2</f>
+      <c r="E29" s="16">
+        <f t="shared" si="2"/>
         <v>1.53</v>
       </c>
-      <c r="F29" s="34">
-        <f t="shared" si="1"/>
+      <c r="F29" s="15">
+        <f t="shared" si="3"/>
         <v>-265</v>
       </c>
     </row>

--- a/wizualizacja.xlsx
+++ b/wizualizacja.xlsx
@@ -9,15 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="wizual" sheetId="1" r:id="rId1"/>
-    <sheet name="przeciecia" sheetId="2" r:id="rId2"/>
-    <sheet name="Arkusz1" sheetId="3" r:id="rId3"/>
+    <sheet name="Arkusz1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>dodaj stacje kolejową</t>
   </si>
@@ -56,37 +54,6 @@
     <t>usuń wagon z lokomotywy</t>
   </si>
   <si>
-    <t>stacja 1</t>
-  </si>
-  <si>
-    <t>stacja2</t>
-  </si>
-  <si>
-    <t>punkt przeciecia</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>dlugosc trasy</t>
-  </si>
-  <si>
-    <t>z2=x2+y2</t>
-  </si>
-  <si>
-    <t>do kwadratu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAPORT pociąg nr beb 212
-nazwa pociągu: aaa
-ilość wagonów: 4
-stacja docelowa: dupa
-</t>
-  </si>
-  <si>
     <t>delta t (sek)</t>
   </si>
   <si>
@@ -106,6 +73,13 @@
   </si>
   <si>
     <t>dlugosc trasy (km)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAPORT pociąg nr beb 212
+nazwa pociągu: aaa
+ilość wagonów: 4
+stacja docelowa: stacja2332
+</t>
   </si>
 </sst>
 </file>
@@ -419,7 +393,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -590,10 +563,10 @@
                   <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>105.06</c:v>
+                  <c:v>98.94</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>101.90819999999999</c:v>
+                  <c:v>95.971800000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>103</c:v>
@@ -608,13 +581,13 @@
                   <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>107.12</c:v>
+                  <c:v>100.88</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>110.3336</c:v>
+                  <c:v>103.9064</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>113.643608</c:v>
+                  <c:v>100.789208</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>102</c:v>
@@ -623,7 +596,7 @@
                   <c:v>98.94</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>101.90819999999999</c:v>
+                  <c:v>95.971800000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>103</c:v>
@@ -1540,53 +1513,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Łącznik prosty ze strzałką 8"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3352800" y="1402080"/>
-          <a:ext cx="243840" cy="259080"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -2048,8 +1974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2305,7 +2231,7 @@
       <c r="I20" s="8"/>
       <c r="J20" s="9"/>
       <c r="K20" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L20" s="25"/>
       <c r="M20" s="26"/>
@@ -2378,91 +2304,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>110</v>
-      </c>
-      <c r="C2">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>468</v>
-      </c>
-      <c r="C3">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <f>ABS((B3-B2)^2)</f>
-        <v>128164</v>
-      </c>
-      <c r="C6">
-        <f>ABS((C2-C3)^2)</f>
-        <v>156025</v>
-      </c>
-      <c r="E6">
-        <f>SQRT(B6+C6)</f>
-        <v>533.09380037663163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -2477,25 +2321,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -2678,11 +2522,11 @@
       </c>
       <c r="B9" s="15">
         <f t="shared" ref="B9:B10" ca="1" si="5">B8*IF(RAND()&gt;0.5,1.03,0.97)</f>
-        <v>105.06</v>
+        <v>98.94</v>
       </c>
       <c r="C9" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>29.183333333333334</v>
+        <v>27.483333333333331</v>
       </c>
       <c r="D9" s="15">
         <f t="shared" si="1"/>
@@ -2703,23 +2547,23 @@
       </c>
       <c r="B10" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>101.90819999999999</v>
+        <v>95.971800000000002</v>
       </c>
       <c r="C10" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>28.307833333333331</v>
+        <v>26.658833333333334</v>
       </c>
       <c r="D10" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>233.46666666666667</v>
+        <v>219.86666666666665</v>
       </c>
       <c r="E10" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46693333333333331</v>
+        <v>0.43973333333333331</v>
       </c>
       <c r="F10" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>266.5333333333333</v>
+        <v>280.13333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2735,15 +2579,15 @@
       </c>
       <c r="D11" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>254.77049999999997</v>
+        <v>239.92950000000002</v>
       </c>
       <c r="E11" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50954099999999991</v>
+        <v>0.47985900000000004</v>
       </c>
       <c r="F11" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>245.22950000000003</v>
+        <v>260.07049999999998</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2826,11 +2670,11 @@
       </c>
       <c r="B15" s="15">
         <f t="shared" ref="B15:B17" ca="1" si="7">B14*IF(RAND()&gt;0.5,1.03,0.97)</f>
-        <v>107.12</v>
+        <v>100.88</v>
       </c>
       <c r="C15" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>29.755555555555556</v>
+        <v>28.022222222222219</v>
       </c>
       <c r="D15" s="15">
         <f t="shared" si="1"/>
@@ -2851,23 +2695,23 @@
       </c>
       <c r="B16" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>110.3336</v>
+        <v>103.9064</v>
       </c>
       <c r="C16" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>30.648222222222223</v>
+        <v>28.862888888888889</v>
       </c>
       <c r="D16" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>416.57777777777778</v>
+        <v>392.31111111111107</v>
       </c>
       <c r="E16" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83315555555555554</v>
+        <v>0.78462222222222211</v>
       </c>
       <c r="F16" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>83.422222222222217</v>
+        <v>107.68888888888893</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2876,23 +2720,23 @@
       </c>
       <c r="B17" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>113.643608</v>
+        <v>100.789208</v>
       </c>
       <c r="C17" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>31.567668888888889</v>
+        <v>27.997002222222221</v>
       </c>
       <c r="D17" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>459.72333333333336</v>
+        <v>432.94333333333333</v>
       </c>
       <c r="E17" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91944666666666675</v>
+        <v>0.86588666666666669</v>
       </c>
       <c r="F17" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>40.276666666666642</v>
+        <v>67.056666666666672</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -2908,15 +2752,15 @@
       </c>
       <c r="D18" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>505.08270222222222</v>
+        <v>447.95203555555554</v>
       </c>
       <c r="E18" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0101654044444444</v>
+        <v>0.89590407111111103</v>
       </c>
       <c r="F18" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>-5.082702222222224</v>
+        <v>52.04796444444446</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2950,11 +2794,11 @@
       </c>
       <c r="B20" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>101.90819999999999</v>
+        <v>95.971800000000002</v>
       </c>
       <c r="C20" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>28.307833333333331</v>
+        <v>26.658833333333334</v>
       </c>
       <c r="D20" s="15">
         <f t="shared" ca="1" si="1"/>
@@ -2982,15 +2826,15 @@
       </c>
       <c r="D21" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>537.84883333333335</v>
+        <v>506.51783333333333</v>
       </c>
       <c r="E21" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0756976666666667</v>
+        <v>1.0130356666666667</v>
       </c>
       <c r="F21" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>-37.848833333333346</v>
+        <v>-6.5178333333333285</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2999,11 +2843,11 @@
       </c>
       <c r="B22" s="13">
         <f t="shared" ref="B22:B23" ca="1" si="9">B21*IF(RAND()&gt;0.5,1.03,0.97)</f>
-        <v>99.91</v>
+        <v>106.09</v>
       </c>
       <c r="C22" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>27.752777777777776</v>
+        <v>29.469444444444445</v>
       </c>
       <c r="D22" s="13">
         <f t="shared" si="1"/>
@@ -3024,23 +2868,23 @@
       </c>
       <c r="B23" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>96.912700000000001</v>
+        <v>102.90730000000001</v>
       </c>
       <c r="C23" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>26.920194444444444</v>
+        <v>28.585361111111112</v>
       </c>
       <c r="D23" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>582.80833333333328</v>
+        <v>618.85833333333335</v>
       </c>
       <c r="E23" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1656166666666665</v>
+        <v>1.2377166666666668</v>
       </c>
       <c r="F23" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>-82.80833333333328</v>
+        <v>-118.85833333333335</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -3056,15 +2900,15 @@
       </c>
       <c r="D24" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>592.24427777777782</v>
+        <v>628.87794444444444</v>
       </c>
       <c r="E24" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1844885555555555</v>
+        <v>1.2577558888888889</v>
       </c>
       <c r="F24" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>-92.244277777777825</v>
+        <v>-128.87794444444444</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -3073,11 +2917,11 @@
       </c>
       <c r="B25" s="13">
         <f t="shared" ref="B25:B27" ca="1" si="10">B24*IF(RAND()&gt;0.5,1.03,0.97)</f>
-        <v>107.12</v>
+        <v>100.88</v>
       </c>
       <c r="C25" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>29.755555555555556</v>
+        <v>28.022222222222219</v>
       </c>
       <c r="D25" s="13">
         <f t="shared" si="1"/>
@@ -3098,23 +2942,23 @@
       </c>
       <c r="B26" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>103.9064</v>
+        <v>97.853599999999986</v>
       </c>
       <c r="C26" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>28.862888888888889</v>
+        <v>27.181555555555551</v>
       </c>
       <c r="D26" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>714.13333333333333</v>
+        <v>672.5333333333333</v>
       </c>
       <c r="E26" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4282666666666666</v>
+        <v>1.3450666666666666</v>
       </c>
       <c r="F26" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>-214.13333333333333</v>
+        <v>-172.5333333333333</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -3123,23 +2967,23 @@
       </c>
       <c r="B27" s="13">
         <f t="shared" ca="1" si="10"/>
-        <v>107.02359200000001</v>
+        <v>94.917991999999984</v>
       </c>
       <c r="C27" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>29.728775555555558</v>
+        <v>26.366108888888885</v>
       </c>
       <c r="D27" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>721.57222222222219</v>
+        <v>679.53888888888878</v>
       </c>
       <c r="E27" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4431444444444443</v>
+        <v>1.3590777777777776</v>
       </c>
       <c r="F27" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>-221.57222222222219</v>
+        <v>-179.53888888888878</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -3155,15 +2999,15 @@
       </c>
       <c r="D28" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>772.9481644444445</v>
+        <v>685.51883111111101</v>
       </c>
       <c r="E28" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5458963288888889</v>
+        <v>1.371037662222222</v>
       </c>
       <c r="F28" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>-272.9481644444445</v>
+        <v>-185.51883111111101</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -3172,11 +3016,11 @@
       </c>
       <c r="B29" s="13">
         <f t="shared" ref="B29" ca="1" si="11">B28*IF(RAND()&gt;0.5,1.03,0.97)</f>
-        <v>98.94</v>
+        <v>105.06</v>
       </c>
       <c r="C29" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>27.483333333333331</v>
+        <v>29.183333333333334</v>
       </c>
       <c r="D29" s="13">
         <f t="shared" si="1"/>
